--- a/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E13563D-D065-4C72-91DF-0EC0FA944749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TerrainData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>TerrainID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainModelPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanBuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,10 +103,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -73,7 +191,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -330,13 +448,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E13563D-D065-4C72-91DF-0EC0FA944749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245F2ED-C1DA-4EBE-A730-CF7C0A666642}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +78,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,63 +472,63 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>111</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245F2ED-C1DA-4EBE-A730-CF7C0A666642}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3B76D-38F6-47FE-B670-266E3A64EBC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TerrainData" sheetId="1" r:id="rId1"/>
+    <sheet name="BiotaData" sheetId="2" r:id="rId1"/>
+    <sheet name="TerrainData" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>TerrainID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +57,54 @@
   </si>
   <si>
     <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiotaID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiotaName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiotaDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiotaName_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiotaDesc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiotaIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvgElevation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RainFall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,13 +161,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,11 +520,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE429193-673E-43EE-A248-E9BD1AEE7B1F}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100200</v>
+      </c>
+      <c r="G2" s="4">
+        <v>500800</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C40" sqref="C40:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TerrainMetaData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3B76D-38F6-47FE-B670-266E3A64EBC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6C2C7-DA39-4432-B727-44BD1C0B8DDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1545" windowWidth="22035" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BiotaData" sheetId="2" r:id="rId1"/>
-    <sheet name="TerrainData" sheetId="1" r:id="rId2"/>
+    <sheet name="TerrainData" sheetId="3" r:id="rId1"/>
+    <sheet name="BiotaData" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>TerrainID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,43 +68,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RainFall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BiotaDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BiotaName_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BiotaDesc_1</t>
+    <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BiotaIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AvgElevation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RainFall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,16 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,82 +508,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE429193-673E-43EE-A248-E9BD1AEE7B1F}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6091FA9C-BBA9-4155-B57E-4754CD88B780}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="9" style="3"/>
+    <col min="1" max="2" width="11.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>111</v>
+      </c>
+      <c r="D2" s="3">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="b">
         <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4">
-        <v>100200</v>
-      </c>
-      <c r="G2" s="4">
-        <v>500800</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -606,73 +586,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B5D16A-00D6-4A9D-B96D-1852505A41E1}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C41"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="3" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>100</v>
-      </c>
-      <c r="B2" s="3">
-        <v>111</v>
-      </c>
-      <c r="C2" s="3">
-        <v>111</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>